--- a/Version_Info.xlsx
+++ b/Version_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A985911-404B-694C-A4E6-D7536FFFBEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07752EED-5565-3041-AAA2-E6118E1D751A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="2000" windowWidth="27060" windowHeight="15380" xr2:uid="{E0E678DF-9356-E249-978F-BD95CD4CC13C}"/>
+    <workbookView xWindow="1280" yWindow="1140" windowWidth="27060" windowHeight="15380" xr2:uid="{E0E678DF-9356-E249-978F-BD95CD4CC13C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DATETIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Stock Symbol One Hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add market calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484F4BA5-6DC1-D645-83FC-2A1ADC8BA82A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -490,6 +498,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>20210706</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1832</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
         <v>4</v>
@@ -498,6 +517,11 @@
     <row r="8" spans="1:3">
       <c r="C8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
